--- a/urls/list.xlsx
+++ b/urls/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -30,28 +30,15 @@
   <si>
     <t xml:space="preserve">FETCH</t>
   </si>
-  <si>
-    <t xml:space="preserve">https://www.google.ru/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jgjkgskjgf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rewtertyw</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -72,13 +59,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,16 +103,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,15 +125,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.7397959183674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,33 +148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.google.ru/"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.google.ru/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
